--- a/pearson_tables/t2m_netherlands-3-1.xlsx
+++ b/pearson_tables/t2m_netherlands-3-1.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6949157746675487</v>
+        <v>0.6650678991154343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5220462863501365</v>
+        <v>0.5234247107547328</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5154176646983166</v>
+        <v>-0.5157468719603234</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4816385701135724</v>
+        <v>-0.4817138123080556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6610130471278767</v>
+        <v>-0.6410498950798404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7323466145282866</v>
+        <v>-0.6907759941421091</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7235482591528336</v>
+        <v>0.7280827739255433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6507666996350521</v>
+        <v>0.735531628225979</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6664054797694979</v>
+        <v>-0.7084655515628374</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6585731742739057</v>
+        <v>-0.6409760972416847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6894427243486084</v>
+        <v>0.7081033913827625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6314398237310522</v>
+        <v>0.6584388658614945</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5610484069247332</v>
+        <v>-0.5591303277189179</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6572930430044055</v>
+        <v>-0.7606205787323347</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6741047330193255</v>
+        <v>0.6274503758060297</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5876390787153847</v>
+        <v>-0.5848701846095312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6400678550785225</v>
+        <v>0.6795783510716945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6490248111555481</v>
+        <v>0.6044003436372705</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5540004115349493</v>
+        <v>-0.5535174446371894</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5473510389341449</v>
+        <v>0.5597910937866947</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5859144988987326</v>
+        <v>-0.6322980835035605</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7114777598051336</v>
+        <v>0.7408565748695953</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5944942561954868</v>
+        <v>-0.6501448453182532</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5968203592863603</v>
+        <v>0.599810978755896</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-3-1.xlsx
+++ b/pearson_tables/t2m_netherlands-3-1.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6650678991154343</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5234247107547328</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5157468719603234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4817138123080556</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6410498950798404</v>
+        <v>-0.7222377876285779</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6907759941421091</v>
+        <v>0.7528533129576779</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7280827739255433</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.735531628225979</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7084655515628374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6409760972416847</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7081033913827625</v>
+        <v>0.6810405984895163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6584388658614945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5591303277189179</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7606205787323347</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6274503758060297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5848701846095312</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6795783510716945</v>
+        <v>-0.6773077325108112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6044003436372705</v>
+        <v>-0.7387131370077278</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5535174446371894</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5597910937866947</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6322980835035605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7408565748695953</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6501448453182532</v>
+        <v>-0.6485656446443729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.599810978755896</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
